--- a/08-agosto/6-portal-cliente/ramirez/RAMIREZ.xlsx
+++ b/08-agosto/6-portal-cliente/ramirez/RAMIREZ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\ramirez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\ramirez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127D5D32-2B1A-4F14-9CA0-357DE2DEBD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5C774A-3EDE-46B1-A025-F2788A8A95B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,18 +558,18 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="15">
-        <v>35983.18</v>
+        <v>36481.26</v>
       </c>
       <c r="F3" s="15">
-        <v>34539.29</v>
+        <v>35824.78</v>
       </c>
       <c r="G3" s="15">
         <f>+E3-F3</f>
-        <v>1443.8899999999994</v>
+        <v>656.4800000000032</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="15">
-        <v>1182667.04</v>
+        <v>1194159.32</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
@@ -606,32 +606,32 @@
         <v>10</v>
       </c>
       <c r="B5" s="7">
-        <v>580391.86</v>
+        <v>586138.19999999995</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>21883.32</v>
+        <v>21882.92</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5" s="7">
         <f>+B5+C5</f>
-        <v>580391.86</v>
+        <v>586138.19999999995</v>
       </c>
       <c r="G5" s="7">
         <f>+D5+E5</f>
-        <v>21883.32</v>
+        <v>21882.92</v>
       </c>
       <c r="H5" s="7">
         <f>+B5+C5+D5+E5</f>
-        <v>602275.17999999993</v>
+        <v>608021.12</v>
       </c>
       <c r="I5" s="7">
         <f>+H5*2</f>
-        <v>1204550.3599999999</v>
+        <v>1216042.24</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
@@ -649,7 +649,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="9">
         <f>SUM(B5:B6)</f>
-        <v>580391.86</v>
+        <v>586138.19999999995</v>
       </c>
       <c r="C7" s="9">
         <f>SUM(C5:C6)</f>
@@ -657,7 +657,7 @@
       </c>
       <c r="D7" s="9">
         <f>SUM(D5:D6)</f>
-        <v>21883.32</v>
+        <v>21882.92</v>
       </c>
       <c r="E7" s="9">
         <f>SUM(E5:E6)</f>
@@ -665,19 +665,19 @@
       </c>
       <c r="F7" s="9">
         <f>SUM(F5:F6)</f>
-        <v>580391.86</v>
+        <v>586138.19999999995</v>
       </c>
       <c r="G7" s="7">
         <f>+D7+E7</f>
-        <v>21883.32</v>
+        <v>21882.92</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(H5:H6)</f>
-        <v>602275.17999999993</v>
+        <v>608021.12</v>
       </c>
       <c r="I7" s="9">
         <f>SUM(I5:I6)</f>
-        <v>1204550.3599999999</v>
+        <v>1216042.24</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
